--- a/ftr_questionnaire/drafts_e1_to_e4/questions.xlsx
+++ b/ftr_questionnaire/drafts_e1_to_e4/questions.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Dropbox/ftr_research/ftr_questionnaire_master/ftr_questionnaire/drafts_e1_to_e4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191331F3-C055-214C-97D1-BD53FCD763B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25100" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="194">
   <si>
     <t>language_no</t>
   </si>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>e1_intersection</t>
+  </si>
+  <si>
+    <t>in_e4</t>
   </si>
   <si>
     <t>[Q: Do you think your dad will go to sleep?] A: Yes, he {BE} tired.</t>
@@ -573,12 +582,12 @@
     <t>twenty_five_plus</t>
   </si>
   <si>
+    <t>ongoing_prediction</t>
+  </si>
+  <si>
     <t>indeterminate</t>
   </si>
   <si>
-    <t>ongoing_prediction</t>
-  </si>
-  <si>
     <t>neutral</t>
   </si>
   <si>
@@ -592,13 +601,19 @@
   </si>
   <si>
     <t>out</t>
+  </si>
+  <si>
+    <t>[Q: What your brother {DO} if you don't go to see him today, do you think?] A: He {CALL} me (on the phone).</t>
+  </si>
+  <si>
+    <t>[Don't bother investing in the tech industry...] ...Silicon Valley {CRASH} in a coutple of years (definitely).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +676,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -707,7 +730,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,9 +762,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,6 +814,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,14 +1007,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98:M145"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="10" width="8.83203125" customWidth="1"/>
+    <col min="14" max="15" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,16 +1066,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1019,42 +1087,45 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H2">
         <v>1001</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1063,42 +1134,45 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H3">
         <v>1002</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1107,42 +1181,45 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H4">
         <v>1003</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1151,42 +1228,45 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5">
         <v>1004</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1195,42 +1275,45 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H6">
         <v>1005</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1239,42 +1322,45 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H7">
         <v>1006</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1283,42 +1369,45 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H8">
         <v>1007</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1327,42 +1416,45 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H9">
         <v>1008</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1371,42 +1463,45 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10">
         <v>1009</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1415,42 +1510,45 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H11">
         <v>1010</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1459,42 +1557,45 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H12">
         <v>1011</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1503,42 +1604,45 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H13">
         <v>1012</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1547,42 +1651,45 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H14">
         <v>1013</v>
       </c>
       <c r="J14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1591,42 +1698,45 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H15">
         <v>1014</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1635,42 +1745,45 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H16">
         <v>1015</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1679,42 +1792,45 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H17">
         <v>1016</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1723,42 +1839,45 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H18">
         <v>1017</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1767,42 +1886,45 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H19">
         <v>1018</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1811,42 +1933,45 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H20">
         <v>1019</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
         <v>184</v>
       </c>
       <c r="M20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1855,42 +1980,45 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H21">
         <v>1020</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
         <v>185</v>
       </c>
       <c r="M21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1899,42 +2027,45 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H22">
         <v>1021</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
         <v>185</v>
       </c>
       <c r="M22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1943,42 +2074,45 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H23">
         <v>1022</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s">
         <v>185</v>
       </c>
       <c r="M23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1987,42 +2121,45 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24">
         <v>1023</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
         <v>185</v>
       </c>
       <c r="M24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -2031,42 +2168,45 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25">
         <v>1024</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -2075,42 +2215,45 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26">
         <v>1025</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -2119,42 +2262,45 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H27">
         <v>1026</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -2163,42 +2309,45 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H28">
         <v>1027</v>
       </c>
       <c r="J28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -2207,42 +2356,45 @@
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H29">
         <v>1028</v>
       </c>
       <c r="J29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -2251,42 +2403,45 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H30">
         <v>1029</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -2295,42 +2450,45 @@
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H31">
         <v>1030</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -2339,42 +2497,45 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H32">
         <v>1031</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -2383,42 +2544,45 @@
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H33">
         <v>1032</v>
       </c>
       <c r="J33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -2427,42 +2591,45 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H34">
         <v>1033</v>
       </c>
       <c r="J34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -2471,42 +2638,45 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H35">
         <v>1034</v>
       </c>
       <c r="J35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -2515,42 +2685,45 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H36">
         <v>1035</v>
       </c>
       <c r="J36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -2559,42 +2732,45 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H37">
         <v>1036</v>
       </c>
       <c r="J37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -2603,42 +2779,45 @@
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H38">
         <v>1037</v>
       </c>
       <c r="J38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -2647,42 +2826,45 @@
         <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H39">
         <v>1038</v>
       </c>
       <c r="J39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -2691,42 +2873,45 @@
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H40">
         <v>1039</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -2735,34 +2920,37 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H41">
         <v>1040</v>
       </c>
       <c r="J41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2770,7 +2958,7 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -2779,34 +2967,37 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H42">
         <v>1041</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2814,7 +3005,7 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -2823,34 +3014,37 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H43">
         <v>1042</v>
       </c>
       <c r="J43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2858,7 +3052,7 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -2867,34 +3061,37 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H44">
         <v>1043</v>
       </c>
       <c r="J44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2902,7 +3099,7 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -2911,34 +3108,37 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H45">
         <v>1044</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2946,7 +3146,7 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -2955,34 +3155,37 @@
         <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H46">
         <v>1045</v>
       </c>
       <c r="J46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2990,7 +3193,7 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -2999,42 +3202,45 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H47">
         <v>1046</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M47" t="s">
         <v>187</v>
       </c>
       <c r="N47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O47" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -3043,42 +3249,45 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H48">
         <v>1047</v>
       </c>
       <c r="J48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s">
         <v>185</v>
       </c>
       <c r="M48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -3087,42 +3296,45 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H49">
         <v>1048</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s">
         <v>185</v>
       </c>
       <c r="M49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3131,42 +3343,45 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H50">
         <v>2001</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3175,42 +3390,45 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H51">
         <v>2002</v>
       </c>
       <c r="J51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3219,42 +3437,45 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H52">
         <v>2003</v>
       </c>
       <c r="J52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3263,42 +3484,45 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H53">
         <v>2004</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -3307,42 +3531,45 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H54">
         <v>2005</v>
       </c>
       <c r="J54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -3351,42 +3578,45 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H55">
         <v>2006</v>
       </c>
       <c r="J55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <v>7</v>
@@ -3395,42 +3625,45 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H56">
         <v>2007</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -3439,42 +3672,45 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H57">
         <v>2008</v>
       </c>
       <c r="J57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -3483,42 +3719,45 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H58">
         <v>2009</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -3527,42 +3766,45 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H59">
         <v>2010</v>
       </c>
       <c r="J59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -3571,42 +3813,45 @@
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H60">
         <v>2011</v>
       </c>
       <c r="J60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61">
         <v>12</v>
@@ -3615,42 +3860,45 @@
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H61">
         <v>2012</v>
       </c>
       <c r="J61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D62">
         <v>13</v>
@@ -3659,42 +3907,45 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H62">
         <v>2013</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D63">
         <v>14</v>
@@ -3703,42 +3954,45 @@
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H63">
         <v>2014</v>
       </c>
       <c r="J63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64">
         <v>15</v>
@@ -3747,42 +4001,45 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H64">
         <v>2015</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -3791,42 +4048,45 @@
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H65">
         <v>2016</v>
       </c>
       <c r="J65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L65" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -3835,42 +4095,45 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H66">
         <v>2017</v>
       </c>
       <c r="J66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67">
         <v>18</v>
@@ -3879,42 +4142,45 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H67">
         <v>2018</v>
       </c>
       <c r="J67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D68">
         <v>19</v>
@@ -3923,42 +4189,45 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H68">
         <v>2019</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L68" t="s">
         <v>184</v>
       </c>
       <c r="M68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -3967,42 +4236,45 @@
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H69">
         <v>2020</v>
       </c>
       <c r="J69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L69" t="s">
         <v>185</v>
       </c>
       <c r="M69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O69" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D70">
         <v>21</v>
@@ -4011,42 +4283,45 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H70">
         <v>2021</v>
       </c>
       <c r="J70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s">
         <v>185</v>
       </c>
       <c r="M70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D71">
         <v>22</v>
@@ -4055,42 +4330,45 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H71">
         <v>2022</v>
       </c>
       <c r="J71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s">
         <v>185</v>
       </c>
       <c r="M71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D72">
         <v>23</v>
@@ -4099,42 +4377,45 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H72">
         <v>2023</v>
       </c>
       <c r="J72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L72" t="s">
         <v>185</v>
       </c>
       <c r="M72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D73">
         <v>24</v>
@@ -4143,42 +4424,45 @@
         <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H73">
         <v>2024</v>
       </c>
       <c r="J73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D74">
         <v>25</v>
@@ -4187,42 +4471,45 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H74">
         <v>2025</v>
       </c>
       <c r="J74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O74" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D75">
         <v>26</v>
@@ -4231,42 +4518,45 @@
         <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H75">
         <v>2026</v>
       </c>
       <c r="J75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O75" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <v>27</v>
@@ -4275,42 +4565,45 @@
         <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H76">
         <v>2027</v>
       </c>
       <c r="J76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O76" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <v>28</v>
@@ -4319,42 +4612,45 @@
         <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H77">
         <v>2028</v>
       </c>
       <c r="J77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D78">
         <v>29</v>
@@ -4363,42 +4659,45 @@
         <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H78">
         <v>2029</v>
       </c>
       <c r="J78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D79">
         <v>30</v>
@@ -4407,42 +4706,45 @@
         <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H79">
         <v>2030</v>
       </c>
       <c r="J79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O79" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>31</v>
@@ -4451,42 +4753,45 @@
         <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H80">
         <v>2031</v>
       </c>
       <c r="J80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O80" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D81">
         <v>32</v>
@@ -4495,42 +4800,45 @@
         <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H81">
         <v>2032</v>
       </c>
       <c r="J81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D82">
         <v>33</v>
@@ -4539,42 +4847,45 @@
         <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H82">
         <v>2033</v>
       </c>
       <c r="J82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D83">
         <v>34</v>
@@ -4583,42 +4894,45 @@
         <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H83">
         <v>2034</v>
       </c>
       <c r="J83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D84">
         <v>35</v>
@@ -4627,42 +4941,45 @@
         <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H84">
         <v>2035</v>
       </c>
       <c r="J84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D85">
         <v>36</v>
@@ -4671,42 +4988,45 @@
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H85">
         <v>2036</v>
       </c>
       <c r="J85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D86">
         <v>37</v>
@@ -4715,42 +5035,45 @@
         <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H86">
         <v>2037</v>
       </c>
       <c r="J86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P86" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D87">
         <v>38</v>
@@ -4759,42 +5082,45 @@
         <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H87">
         <v>2038</v>
       </c>
       <c r="J87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D88">
         <v>39</v>
@@ -4803,42 +5129,45 @@
         <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H88">
         <v>2039</v>
       </c>
       <c r="J88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P88" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D89">
         <v>40</v>
@@ -4847,34 +5176,37 @@
         <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H89">
         <v>2040</v>
       </c>
       <c r="J89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L89" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2</v>
       </c>
@@ -4882,7 +5214,7 @@
         <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D90">
         <v>41</v>
@@ -4891,34 +5223,37 @@
         <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H90">
         <v>2041</v>
       </c>
       <c r="J90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O90" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -4926,7 +5261,7 @@
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D91">
         <v>42</v>
@@ -4935,34 +5270,37 @@
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H91">
         <v>2042</v>
       </c>
       <c r="J91" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2</v>
       </c>
@@ -4970,7 +5308,7 @@
         <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D92">
         <v>43</v>
@@ -4979,34 +5317,37 @@
         <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H92">
         <v>2043</v>
       </c>
       <c r="J92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M92" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -5014,7 +5355,7 @@
         <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D93">
         <v>44</v>
@@ -5023,34 +5364,37 @@
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H93">
         <v>2044</v>
       </c>
       <c r="J93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O93" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
@@ -5058,7 +5402,7 @@
         <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D94">
         <v>45</v>
@@ -5067,34 +5411,37 @@
         <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H94">
         <v>2045</v>
       </c>
       <c r="J94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L94" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2</v>
       </c>
@@ -5102,7 +5449,7 @@
         <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D95">
         <v>46</v>
@@ -5111,42 +5458,45 @@
         <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G95" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H95">
         <v>2046</v>
       </c>
       <c r="J95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L95" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M95" t="s">
         <v>187</v>
       </c>
       <c r="N95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D96">
         <v>47</v>
@@ -5155,42 +5505,45 @@
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H96">
         <v>2047</v>
       </c>
       <c r="J96" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L96" t="s">
         <v>185</v>
       </c>
       <c r="M96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D97">
         <v>48</v>
@@ -5199,42 +5552,45 @@
         <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G97" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H97">
         <v>2048</v>
       </c>
       <c r="J97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K97" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L97" t="s">
         <v>185</v>
       </c>
       <c r="M97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5243,42 +5599,45 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G98" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H98">
         <v>3001</v>
       </c>
       <c r="J98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -5287,42 +5646,45 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G99" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H99">
         <v>3002</v>
       </c>
       <c r="J99" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L99" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M99" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O99" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P99" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -5331,42 +5693,45 @@
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H100">
         <v>3003</v>
       </c>
       <c r="J100" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L100" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M100" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O100" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -5375,42 +5740,45 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G101" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H101">
         <v>3004</v>
       </c>
       <c r="J101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K101" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L101" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O101" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -5419,42 +5787,45 @@
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G102" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H102">
         <v>3005</v>
       </c>
       <c r="J102" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L102" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M102" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O102" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -5463,42 +5834,45 @@
         <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H103">
         <v>3006</v>
       </c>
       <c r="J103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K103" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L103" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O103" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -5507,42 +5881,45 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G104" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H104">
         <v>3007</v>
       </c>
       <c r="J104" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K104" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L104" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O104" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -5551,42 +5928,45 @@
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G105" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H105">
         <v>3008</v>
       </c>
       <c r="J105" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O105" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P105" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -5595,42 +5975,45 @@
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H106">
         <v>3009</v>
       </c>
       <c r="J106" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L106" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N106" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O106" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -5639,42 +6022,45 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G107" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H107">
         <v>3010</v>
       </c>
       <c r="J107" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K107" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L107" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M107" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O107" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -5683,42 +6069,45 @@
         <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G108" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H108">
         <v>3011</v>
       </c>
       <c r="J108" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K108" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M108" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O108" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -5727,42 +6116,45 @@
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H109">
         <v>3012</v>
       </c>
       <c r="J109" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K109" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L109" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M109" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O109" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -5771,42 +6163,45 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H110">
         <v>3013</v>
       </c>
       <c r="J110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K110" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N110" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O110" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -5815,42 +6210,45 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H111">
         <v>3014</v>
       </c>
       <c r="J111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K111" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O111" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P111" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -5859,42 +6257,45 @@
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G112" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H112">
         <v>3015</v>
       </c>
       <c r="J112" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K112" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L112" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M112" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N112" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O112" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -5903,42 +6304,45 @@
         <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G113" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H113">
         <v>3016</v>
       </c>
       <c r="J113" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L113" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M113" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O113" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -5947,42 +6351,45 @@
         <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H114">
         <v>3017</v>
       </c>
       <c r="J114" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K114" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L114" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M114" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P114" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -5991,42 +6398,45 @@
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G115" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H115">
         <v>3018</v>
       </c>
       <c r="J115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K115" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L115" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M115" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N115" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O115" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P115" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -6035,42 +6445,45 @@
         <v>18</v>
       </c>
       <c r="F116" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G116" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H116">
         <v>3019</v>
       </c>
       <c r="J116" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K116" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L116" t="s">
         <v>184</v>
       </c>
       <c r="M116" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N116" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O116" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P116" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -6079,42 +6492,45 @@
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G117" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H117">
         <v>3020</v>
       </c>
       <c r="J117" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K117" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L117" t="s">
         <v>185</v>
       </c>
       <c r="M117" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N117" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O117" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -6123,42 +6539,45 @@
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G118" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H118">
         <v>3021</v>
       </c>
       <c r="J118" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K118" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L118" t="s">
         <v>185</v>
       </c>
       <c r="M118" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -6167,42 +6586,45 @@
         <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G119" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H119">
         <v>3022</v>
       </c>
       <c r="J119" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K119" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L119" t="s">
         <v>185</v>
       </c>
       <c r="M119" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N119" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O119" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P119" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -6211,42 +6633,45 @@
         <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G120" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H120">
         <v>3023</v>
       </c>
       <c r="J120" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K120" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L120" t="s">
         <v>185</v>
       </c>
       <c r="M120" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O120" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P120" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -6255,42 +6680,45 @@
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G121" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H121">
         <v>3024</v>
       </c>
       <c r="J121" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K121" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L121" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M121" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O121" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P121" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -6299,42 +6727,45 @@
         <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G122" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H122">
         <v>3025</v>
       </c>
       <c r="J122" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L122" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M122" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N122" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O122" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P122" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -6343,42 +6774,45 @@
         <v>24</v>
       </c>
       <c r="F123" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G123" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H123">
         <v>3026</v>
       </c>
       <c r="J123" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K123" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L123" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M123" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O123" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -6387,42 +6821,45 @@
         <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G124" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H124">
         <v>3027</v>
       </c>
       <c r="J124" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K124" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L124" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M124" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N124" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O124" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P124" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -6431,42 +6868,45 @@
         <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G125" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H125">
         <v>3028</v>
       </c>
       <c r="J125" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K125" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L125" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M125" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N125" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O125" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P125" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -6475,42 +6915,45 @@
         <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G126" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H126">
         <v>3029</v>
       </c>
       <c r="J126" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K126" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L126" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M126" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N126" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O126" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -6519,42 +6962,45 @@
         <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G127" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H127">
         <v>3030</v>
       </c>
       <c r="J127" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K127" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L127" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N127" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O127" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -6563,42 +7009,45 @@
         <v>28</v>
       </c>
       <c r="F128" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G128" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H128">
         <v>3031</v>
       </c>
       <c r="J128" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K128" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L128" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M128" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N128" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P128" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -6607,42 +7056,45 @@
         <v>28</v>
       </c>
       <c r="F129" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G129" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H129">
         <v>3032</v>
       </c>
       <c r="J129" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K129" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L129" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N129" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -6651,42 +7103,45 @@
         <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G130" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H130">
         <v>3033</v>
       </c>
       <c r="J130" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K130" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M130" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N130" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O130" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -6695,42 +7150,45 @@
         <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G131" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H131">
         <v>3034</v>
       </c>
       <c r="J131" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K131" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M131" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N131" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O131" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P131" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -6739,42 +7197,45 @@
         <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G132" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H132">
         <v>3035</v>
       </c>
       <c r="J132" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K132" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L132" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M132" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N132" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O132" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -6783,42 +7244,45 @@
         <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G133" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H133">
         <v>3036</v>
       </c>
       <c r="J133" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K133" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L133" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M133" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N133" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -6827,42 +7291,45 @@
         <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G134" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H134">
         <v>3037</v>
       </c>
       <c r="J134" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K134" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M134" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N134" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O134" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P134" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -6871,42 +7338,45 @@
         <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G135" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H135">
         <v>3038</v>
       </c>
       <c r="J135" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L135" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N135" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O135" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P135" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -6915,42 +7385,45 @@
         <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G136" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H136">
         <v>3039</v>
       </c>
       <c r="J136" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K136" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L136" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -6959,42 +7432,45 @@
         <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G137" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H137">
         <v>3040</v>
       </c>
       <c r="J137" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K137" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L137" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M137" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O137" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -7003,42 +7479,45 @@
         <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G138" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H138">
         <v>3041</v>
       </c>
       <c r="J138" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K138" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L138" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M138" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O138" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="P138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -7047,42 +7526,45 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G139" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H139">
         <v>3042</v>
       </c>
       <c r="J139" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K139" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L139" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N139" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O139" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -7091,42 +7573,45 @@
         <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G140" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H140">
         <v>3043</v>
       </c>
       <c r="J140" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K140" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L140" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M140" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N140" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -7135,42 +7620,45 @@
         <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G141" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H141">
         <v>3044</v>
       </c>
       <c r="J141" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K141" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L141" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M141" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N141" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -7179,42 +7667,45 @@
         <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G142" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H142">
         <v>3045</v>
       </c>
       <c r="J142" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K142" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L142" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M142" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N142" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -7223,42 +7714,45 @@
         <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H143">
         <v>3046</v>
       </c>
       <c r="J143" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K143" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L143" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M143" t="s">
         <v>187</v>
       </c>
       <c r="N143" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -7267,42 +7761,45 @@
         <v>5</v>
       </c>
       <c r="F144" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G144" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H144">
         <v>3047</v>
       </c>
       <c r="J144" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K144" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L144" t="s">
         <v>185</v>
       </c>
       <c r="M144" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>190</v>
+      </c>
+      <c r="P144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -7311,34 +7808,40 @@
         <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G145" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H145">
         <v>3048</v>
       </c>
       <c r="J145" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L145" t="s">
         <v>185</v>
       </c>
       <c r="M145" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N145" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O145" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="P145" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C2:P146">
+    <sortCondition ref="H2:H146"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ftr_questionnaire/drafts_e1_to_e4/questions.xlsx
+++ b/ftr_questionnaire/drafts_e1_to_e4/questions.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Dropbox/ftr_research/ftr_questionnaire_master/ftr_questionnaire/drafts_e1_to_e4/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191331F3-C055-214C-97D1-BD53FCD763B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25100" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="195">
   <si>
     <t>language_no</t>
   </si>
@@ -67,7 +61,13 @@
     <t>e1_intersection</t>
   </si>
   <si>
-    <t>in_e4</t>
+    <t>in_e3</t>
+  </si>
+  <si>
+    <t>e1_uploaded</t>
+  </si>
+  <si>
+    <t>used_to_calc_means</t>
   </si>
   <si>
     <t>[Q: Do you think your dad will go to sleep?] A: Yes, he {BE} tired.</t>
@@ -540,6 +540,9 @@
     <t>understood</t>
   </si>
   <si>
+    <t>because the distance is relative to the present in this question, frame distance for this question is set to two years in experiment 1, wave 1; one year in experiment 2. it is removed from experiment one, wave 2 (later german data collection), and experiment 3</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -601,19 +604,13 @@
   </si>
   <si>
     <t>out</t>
-  </si>
-  <si>
-    <t>[Q: What your brother {DO} if you don't go to see him today, do you think?] A: He {CALL} me (on the phone).</t>
-  </si>
-  <si>
-    <t>[Don't bother investing in the tech industry...] ...Silicon Valley {CRASH} in a coutple of years (definitely).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,14 +673,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -730,7 +719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,27 +751,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,24 +785,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1007,20 +960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98:M145"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="10" width="8.83203125" customWidth="1"/>
-    <col min="14" max="15" width="8.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,16 +1016,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1087,45 +1040,51 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H2">
         <v>1001</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1134,45 +1093,51 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H3">
         <v>1002</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1181,37 +1146,43 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4">
         <v>1003</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1219,7 +1190,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1228,37 +1199,43 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H5">
         <v>1004</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>194</v>
+      </c>
+      <c r="R5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1266,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1275,37 +1252,43 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H6">
         <v>1005</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>193</v>
+      </c>
+      <c r="R6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1313,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1322,37 +1305,43 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H7">
         <v>1006</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1360,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1369,37 +1358,43 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H8">
         <v>1007</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1416,45 +1411,51 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H9">
         <v>1008</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>193</v>
+      </c>
+      <c r="R9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1463,45 +1464,51 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H10">
         <v>1009</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>193</v>
+      </c>
+      <c r="R10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1510,45 +1517,51 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11">
         <v>1010</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>193</v>
+      </c>
+      <c r="R11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1557,45 +1570,51 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H12">
         <v>1011</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>193</v>
+      </c>
+      <c r="R12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1604,45 +1623,51 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H13">
         <v>1012</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>193</v>
+      </c>
+      <c r="R13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1651,45 +1676,51 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H14">
         <v>1013</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>193</v>
+      </c>
+      <c r="R14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1698,45 +1729,51 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H15">
         <v>1014</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>193</v>
+      </c>
+      <c r="R15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1745,45 +1782,51 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H16">
         <v>1015</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>193</v>
+      </c>
+      <c r="R16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1792,45 +1835,51 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H17">
         <v>1016</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>194</v>
+      </c>
+      <c r="R17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1839,45 +1888,51 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H18">
         <v>1017</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>193</v>
+      </c>
+      <c r="R18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1886,45 +1941,51 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H19">
         <v>1018</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>193</v>
+      </c>
+      <c r="R19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1933,45 +1994,51 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H20">
         <v>1019</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>193</v>
+      </c>
+      <c r="R20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1980,45 +2047,51 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H21">
         <v>1020</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>193</v>
+      </c>
+      <c r="R21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -2027,45 +2100,51 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H22">
         <v>1021</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>193</v>
+      </c>
+      <c r="R22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -2074,45 +2153,51 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H23">
         <v>1022</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -2121,45 +2206,51 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24">
         <v>1023</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>193</v>
+      </c>
+      <c r="R24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -2168,45 +2259,51 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25">
         <v>1024</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>194</v>
+      </c>
+      <c r="R25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -2215,45 +2312,51 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H26">
         <v>1025</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M26" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>194</v>
+      </c>
+      <c r="R26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -2262,45 +2365,51 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H27">
         <v>1026</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>194</v>
+      </c>
+      <c r="R27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -2309,45 +2418,51 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H28">
         <v>1027</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>193</v>
+      </c>
+      <c r="R28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -2356,45 +2471,51 @@
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H29">
         <v>1028</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>193</v>
+      </c>
+      <c r="R29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -2403,45 +2524,51 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H30">
         <v>1029</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>193</v>
+      </c>
+      <c r="R30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -2450,45 +2577,51 @@
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H31">
         <v>1030</v>
       </c>
       <c r="J31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>194</v>
+      </c>
+      <c r="R31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -2497,45 +2630,51 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H32">
         <v>1031</v>
       </c>
       <c r="J32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>193</v>
+      </c>
+      <c r="R32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -2544,45 +2683,51 @@
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H33">
         <v>1032</v>
       </c>
       <c r="J33" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>193</v>
+      </c>
+      <c r="R33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -2591,45 +2736,51 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H34">
         <v>1033</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N34" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O34" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>193</v>
+      </c>
+      <c r="R34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -2638,45 +2789,51 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H35">
         <v>1034</v>
       </c>
       <c r="J35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>193</v>
+      </c>
+      <c r="R35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -2685,45 +2842,51 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H36">
         <v>1035</v>
       </c>
       <c r="J36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K36" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>193</v>
+      </c>
+      <c r="R36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -2732,45 +2895,51 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H37">
         <v>1036</v>
       </c>
       <c r="J37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K37" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O37" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>193</v>
+      </c>
+      <c r="R37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -2779,45 +2948,54 @@
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H38">
         <v>1037</v>
       </c>
+      <c r="I38" t="s">
+        <v>173</v>
+      </c>
       <c r="J38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M38" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>193</v>
+      </c>
+      <c r="R38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -2826,45 +3004,54 @@
         <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H39">
         <v>1038</v>
       </c>
+      <c r="I39" t="s">
+        <v>173</v>
+      </c>
       <c r="J39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K39" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N39" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>193</v>
+      </c>
+      <c r="R39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -2873,45 +3060,54 @@
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H40">
         <v>1039</v>
       </c>
+      <c r="I40" t="s">
+        <v>173</v>
+      </c>
       <c r="J40" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N40" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O40" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>193</v>
+      </c>
+      <c r="R40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -2920,45 +3116,51 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H41">
         <v>1040</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K41" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N41" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>193</v>
+      </c>
+      <c r="R41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -2967,45 +3169,51 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H42">
         <v>1041</v>
       </c>
       <c r="J42" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>193</v>
+      </c>
+      <c r="R42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -3014,45 +3222,51 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H43">
         <v>1042</v>
       </c>
       <c r="J43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K43" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N43" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>193</v>
+      </c>
+      <c r="R43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -3061,45 +3275,51 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H44">
         <v>1043</v>
       </c>
       <c r="J44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K44" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M44" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N44" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O44" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>193</v>
+      </c>
+      <c r="R44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -3108,45 +3328,51 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H45">
         <v>1044</v>
       </c>
       <c r="J45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K45" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L45" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N45" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O45" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>193</v>
+      </c>
+      <c r="R45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -3155,45 +3381,51 @@
         <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H46">
         <v>1045</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M46" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>193</v>
+      </c>
+      <c r="R46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -3202,45 +3434,51 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H47">
         <v>1046</v>
       </c>
       <c r="J47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L47" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N47" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O47" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>193</v>
+      </c>
+      <c r="R47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -3249,45 +3487,51 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H48">
         <v>1047</v>
       </c>
       <c r="J48" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K48" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N48" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O48" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>194</v>
+      </c>
+      <c r="R48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -3296,45 +3540,51 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H49">
         <v>1048</v>
       </c>
       <c r="J49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>193</v>
+      </c>
+      <c r="R49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3343,45 +3593,51 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H50">
         <v>2001</v>
       </c>
       <c r="J50" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M50" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N50" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O50" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>194</v>
+      </c>
+      <c r="R50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3390,45 +3646,51 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H51">
         <v>2002</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K51" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M51" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>193</v>
+      </c>
+      <c r="R51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3437,37 +3699,43 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H52">
         <v>2003</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M52" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N52" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O52" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>193</v>
+      </c>
+      <c r="R52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3475,7 +3743,7 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3484,37 +3752,43 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H53">
         <v>2004</v>
       </c>
       <c r="J53" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K53" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L53" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M53" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N53" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O53" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>193</v>
+      </c>
+      <c r="R53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3522,7 +3796,7 @@
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -3531,37 +3805,43 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H54">
         <v>2005</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M54" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>193</v>
+      </c>
+      <c r="R54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3569,7 +3849,7 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -3578,37 +3858,43 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H55">
         <v>2006</v>
       </c>
       <c r="J55" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N55" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O55" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>193</v>
+      </c>
+      <c r="R55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3616,7 +3902,7 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D56">
         <v>7</v>
@@ -3625,37 +3911,43 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H56">
         <v>2007</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M56" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N56" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>193</v>
+      </c>
+      <c r="R56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3663,7 +3955,7 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -3672,45 +3964,51 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H57">
         <v>2008</v>
       </c>
       <c r="J57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K57" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M57" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N57" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O57" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>193</v>
+      </c>
+      <c r="R57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -3719,45 +4017,51 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H58">
         <v>2009</v>
       </c>
       <c r="J58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L58" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>193</v>
+      </c>
+      <c r="R58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -3766,45 +4070,51 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H59">
         <v>2010</v>
       </c>
       <c r="J59" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L59" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M59" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>193</v>
+      </c>
+      <c r="R59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -3813,45 +4123,51 @@
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H60">
         <v>2011</v>
       </c>
       <c r="J60" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L60" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M60" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N60" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O60" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>193</v>
+      </c>
+      <c r="R60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D61">
         <v>12</v>
@@ -3860,45 +4176,51 @@
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H61">
         <v>2012</v>
       </c>
       <c r="J61" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K61" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M61" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N61" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O61" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>193</v>
+      </c>
+      <c r="R61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D62">
         <v>13</v>
@@ -3907,45 +4229,51 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H62">
         <v>2013</v>
       </c>
       <c r="J62" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M62" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N62" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O62" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>193</v>
+      </c>
+      <c r="R62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D63">
         <v>14</v>
@@ -3954,45 +4282,51 @@
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H63">
         <v>2014</v>
       </c>
       <c r="J63" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L63" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M63" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N63" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O63" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>193</v>
+      </c>
+      <c r="R63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D64">
         <v>15</v>
@@ -4001,45 +4335,51 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H64">
         <v>2015</v>
       </c>
       <c r="J64" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K64" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L64" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M64" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>193</v>
+      </c>
+      <c r="R64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -4048,45 +4388,51 @@
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H65">
         <v>2016</v>
       </c>
       <c r="J65" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K65" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M65" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>194</v>
+      </c>
+      <c r="R65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -4095,45 +4441,51 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H66">
         <v>2017</v>
       </c>
       <c r="J66" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M66" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N66" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O66" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>193</v>
+      </c>
+      <c r="R66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D67">
         <v>18</v>
@@ -4142,45 +4494,51 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H67">
         <v>2018</v>
       </c>
       <c r="J67" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K67" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M67" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N67" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O67" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>194</v>
+      </c>
+      <c r="R67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D68">
         <v>19</v>
@@ -4189,45 +4547,51 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H68">
         <v>2019</v>
       </c>
       <c r="J68" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L68" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N68" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O68" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>194</v>
+      </c>
+      <c r="R68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -4236,45 +4600,51 @@
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H69">
         <v>2020</v>
       </c>
       <c r="J69" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K69" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L69" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M69" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N69" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O69" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>193</v>
+      </c>
+      <c r="R69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D70">
         <v>21</v>
@@ -4283,45 +4653,51 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H70">
         <v>2021</v>
       </c>
       <c r="J70" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K70" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L70" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M70" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N70" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O70" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>193</v>
+      </c>
+      <c r="R70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D71">
         <v>22</v>
@@ -4330,45 +4706,51 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H71">
         <v>2022</v>
       </c>
       <c r="J71" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K71" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M71" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N71" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O71" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>193</v>
+      </c>
+      <c r="R71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D72">
         <v>23</v>
@@ -4377,45 +4759,51 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G72" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H72">
         <v>2023</v>
       </c>
       <c r="J72" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K72" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L72" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M72" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N72" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O72" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>193</v>
+      </c>
+      <c r="R72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D73">
         <v>24</v>
@@ -4424,45 +4812,51 @@
         <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G73" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H73">
         <v>2024</v>
       </c>
       <c r="J73" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K73" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L73" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M73" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N73" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O73" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>194</v>
+      </c>
+      <c r="R73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D74">
         <v>25</v>
@@ -4471,45 +4865,51 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G74" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H74">
         <v>2025</v>
       </c>
       <c r="J74" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K74" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L74" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>194</v>
+      </c>
+      <c r="R74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D75">
         <v>26</v>
@@ -4518,45 +4918,51 @@
         <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G75" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H75">
         <v>2026</v>
       </c>
       <c r="J75" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L75" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M75" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N75" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O75" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>194</v>
+      </c>
+      <c r="R75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D76">
         <v>27</v>
@@ -4565,45 +4971,51 @@
         <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G76" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H76">
         <v>2027</v>
       </c>
       <c r="J76" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K76" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L76" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>193</v>
+      </c>
+      <c r="R76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D77">
         <v>28</v>
@@ -4612,45 +5024,51 @@
         <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G77" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H77">
         <v>2028</v>
       </c>
       <c r="J77" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K77" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L77" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M77" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N77" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O77" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>193</v>
+      </c>
+      <c r="R77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D78">
         <v>29</v>
@@ -4659,45 +5077,51 @@
         <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H78">
         <v>2029</v>
       </c>
       <c r="J78" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K78" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L78" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M78" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N78" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O78" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>193</v>
+      </c>
+      <c r="R78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D79">
         <v>30</v>
@@ -4706,45 +5130,51 @@
         <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G79" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H79">
         <v>2030</v>
       </c>
       <c r="J79" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K79" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L79" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M79" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N79" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>194</v>
+      </c>
+      <c r="R79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D80">
         <v>31</v>
@@ -4753,45 +5183,51 @@
         <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G80" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H80">
         <v>2031</v>
       </c>
       <c r="J80" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K80" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L80" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M80" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O80" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>193</v>
+      </c>
+      <c r="R80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D81">
         <v>32</v>
@@ -4800,45 +5236,51 @@
         <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G81" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H81">
         <v>2032</v>
       </c>
       <c r="J81" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K81" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L81" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M81" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N81" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O81" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>193</v>
+      </c>
+      <c r="R81" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D82">
         <v>33</v>
@@ -4847,45 +5289,51 @@
         <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G82" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H82">
         <v>2033</v>
       </c>
       <c r="J82" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K82" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L82" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M82" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N82" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O82" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>193</v>
+      </c>
+      <c r="R82" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D83">
         <v>34</v>
@@ -4894,45 +5342,51 @@
         <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G83" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H83">
         <v>2034</v>
       </c>
       <c r="J83" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K83" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L83" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M83" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N83" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O83" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>193</v>
+      </c>
+      <c r="R83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D84">
         <v>35</v>
@@ -4941,45 +5395,51 @@
         <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G84" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H84">
         <v>2035</v>
       </c>
       <c r="J84" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K84" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L84" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M84" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N84" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O84" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>193</v>
+      </c>
+      <c r="R84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D85">
         <v>36</v>
@@ -4988,45 +5448,51 @@
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H85">
         <v>2036</v>
       </c>
       <c r="J85" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K85" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L85" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M85" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N85" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>193</v>
+      </c>
+      <c r="R85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D86">
         <v>37</v>
@@ -5035,45 +5501,54 @@
         <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H86">
         <v>2037</v>
       </c>
+      <c r="I86" t="s">
+        <v>173</v>
+      </c>
       <c r="J86" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K86" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L86" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M86" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N86" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O86" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>193</v>
+      </c>
+      <c r="R86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D87">
         <v>38</v>
@@ -5082,45 +5557,54 @@
         <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G87" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H87">
         <v>2038</v>
       </c>
+      <c r="I87" t="s">
+        <v>173</v>
+      </c>
       <c r="J87" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K87" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L87" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M87" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N87" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O87" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>193</v>
+      </c>
+      <c r="R87" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D88">
         <v>39</v>
@@ -5129,45 +5613,54 @@
         <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G88" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H88">
         <v>2039</v>
       </c>
+      <c r="I88" t="s">
+        <v>173</v>
+      </c>
       <c r="J88" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K88" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L88" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M88" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N88" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O88" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>193</v>
+      </c>
+      <c r="R88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D89">
         <v>40</v>
@@ -5176,45 +5669,51 @@
         <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G89" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H89">
         <v>2040</v>
       </c>
       <c r="J89" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K89" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L89" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M89" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N89" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O89" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P89" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>193</v>
+      </c>
+      <c r="R89" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D90">
         <v>41</v>
@@ -5223,45 +5722,51 @@
         <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H90">
         <v>2041</v>
       </c>
       <c r="J90" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K90" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L90" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M90" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N90" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O90" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>194</v>
+      </c>
+      <c r="R90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D91">
         <v>42</v>
@@ -5270,45 +5775,51 @@
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G91" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H91">
         <v>2042</v>
       </c>
       <c r="J91" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K91" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L91" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M91" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N91" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O91" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P91" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>193</v>
+      </c>
+      <c r="R91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D92">
         <v>43</v>
@@ -5317,45 +5828,51 @@
         <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G92" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H92">
         <v>2043</v>
       </c>
       <c r="J92" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K92" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L92" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M92" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N92" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O92" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P92" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>193</v>
+      </c>
+      <c r="R92" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D93">
         <v>44</v>
@@ -5364,45 +5881,51 @@
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G93" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H93">
         <v>2044</v>
       </c>
       <c r="J93" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K93" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L93" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M93" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N93" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O93" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>193</v>
+      </c>
+      <c r="R93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D94">
         <v>45</v>
@@ -5411,45 +5934,51 @@
         <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G94" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H94">
         <v>2045</v>
       </c>
       <c r="J94" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K94" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L94" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M94" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N94" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O94" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>193</v>
+      </c>
+      <c r="R94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D95">
         <v>46</v>
@@ -5458,45 +5987,51 @@
         <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G95" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H95">
         <v>2046</v>
       </c>
       <c r="J95" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K95" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L95" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M95" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N95" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O95" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>193</v>
+      </c>
+      <c r="R95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D96">
         <v>47</v>
@@ -5505,45 +6040,51 @@
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G96" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H96">
         <v>2047</v>
       </c>
       <c r="J96" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K96" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L96" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M96" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N96" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O96" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>194</v>
+      </c>
+      <c r="R96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D97">
         <v>48</v>
@@ -5552,45 +6093,51 @@
         <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G97" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H97">
         <v>2048</v>
       </c>
       <c r="J97" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K97" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L97" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M97" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N97" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O97" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P97" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>193</v>
+      </c>
+      <c r="R97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5599,45 +6146,51 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H98">
         <v>3001</v>
       </c>
       <c r="J98" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K98" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L98" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M98" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N98" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O98" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>194</v>
+      </c>
+      <c r="R98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -5646,45 +6199,51 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G99" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H99">
         <v>3002</v>
       </c>
       <c r="J99" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K99" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L99" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M99" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N99" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O99" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P99" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>193</v>
+      </c>
+      <c r="R99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -5693,45 +6252,51 @@
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G100" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H100">
         <v>3003</v>
       </c>
       <c r="J100" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K100" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L100" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M100" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N100" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O100" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>194</v>
+      </c>
+      <c r="R100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -5740,45 +6305,51 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G101" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H101">
         <v>3004</v>
       </c>
       <c r="J101" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K101" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L101" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M101" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N101" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O101" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P101" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>193</v>
+      </c>
+      <c r="R101" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -5787,45 +6358,51 @@
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G102" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H102">
         <v>3005</v>
       </c>
       <c r="J102" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K102" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L102" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M102" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N102" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O102" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P102" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>193</v>
+      </c>
+      <c r="R102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -5834,45 +6411,51 @@
         <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G103" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H103">
         <v>3006</v>
       </c>
       <c r="J103" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K103" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L103" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M103" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N103" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O103" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P103" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>193</v>
+      </c>
+      <c r="R103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -5881,45 +6464,51 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G104" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H104">
         <v>3007</v>
       </c>
       <c r="J104" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K104" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L104" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M104" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N104" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O104" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P104" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>194</v>
+      </c>
+      <c r="R104" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -5928,45 +6517,51 @@
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G105" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H105">
         <v>3008</v>
       </c>
       <c r="J105" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K105" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L105" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M105" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N105" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O105" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P105" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>193</v>
+      </c>
+      <c r="R105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -5975,45 +6570,51 @@
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G106" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H106">
         <v>3009</v>
       </c>
       <c r="J106" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K106" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L106" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M106" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N106" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O106" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P106" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>193</v>
+      </c>
+      <c r="R106" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -6022,45 +6623,51 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G107" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H107">
         <v>3010</v>
       </c>
       <c r="J107" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K107" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L107" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M107" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N107" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O107" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P107" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>193</v>
+      </c>
+      <c r="R107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -6069,45 +6676,51 @@
         <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G108" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H108">
         <v>3011</v>
       </c>
       <c r="J108" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K108" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L108" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M108" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N108" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O108" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P108" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>193</v>
+      </c>
+      <c r="R108" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -6116,45 +6729,51 @@
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G109" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H109">
         <v>3012</v>
       </c>
       <c r="J109" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K109" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L109" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M109" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N109" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O109" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P109" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>193</v>
+      </c>
+      <c r="R109" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -6163,45 +6782,51 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G110" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H110">
         <v>3013</v>
       </c>
       <c r="J110" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K110" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L110" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M110" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N110" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O110" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P110" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>193</v>
+      </c>
+      <c r="R110" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -6210,45 +6835,51 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G111" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H111">
         <v>3014</v>
       </c>
       <c r="J111" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K111" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L111" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M111" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N111" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O111" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P111" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>193</v>
+      </c>
+      <c r="R111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -6257,45 +6888,51 @@
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G112" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H112">
         <v>3015</v>
       </c>
       <c r="J112" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K112" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L112" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M112" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N112" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O112" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P112" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>193</v>
+      </c>
+      <c r="R112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C113" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -6304,45 +6941,51 @@
         <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G113" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H113">
         <v>3016</v>
       </c>
       <c r="J113" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K113" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L113" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M113" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N113" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O113" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P113" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>194</v>
+      </c>
+      <c r="R113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -6351,45 +6994,51 @@
         <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G114" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H114">
         <v>3017</v>
       </c>
       <c r="J114" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K114" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L114" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M114" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N114" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O114" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P114" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>193</v>
+      </c>
+      <c r="R114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C115" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -6398,45 +7047,51 @@
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G115" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H115">
         <v>3018</v>
       </c>
       <c r="J115" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K115" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L115" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M115" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N115" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O115" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P115" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>193</v>
+      </c>
+      <c r="R115" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -6445,45 +7100,51 @@
         <v>18</v>
       </c>
       <c r="F116" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G116" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H116">
         <v>3019</v>
       </c>
       <c r="J116" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K116" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L116" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M116" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N116" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O116" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P116" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>193</v>
+      </c>
+      <c r="R116" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -6492,45 +7153,51 @@
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G117" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H117">
         <v>3020</v>
       </c>
       <c r="J117" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K117" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L117" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M117" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N117" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O117" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P117" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>193</v>
+      </c>
+      <c r="R117" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -6539,45 +7206,51 @@
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G118" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H118">
         <v>3021</v>
       </c>
       <c r="J118" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K118" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L118" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M118" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N118" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O118" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P118" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>193</v>
+      </c>
+      <c r="R118" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -6586,45 +7259,51 @@
         <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G119" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H119">
         <v>3022</v>
       </c>
       <c r="J119" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K119" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L119" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M119" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N119" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O119" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P119" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>193</v>
+      </c>
+      <c r="R119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -6633,45 +7312,51 @@
         <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G120" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H120">
         <v>3023</v>
       </c>
       <c r="J120" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K120" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L120" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M120" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N120" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O120" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P120" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>193</v>
+      </c>
+      <c r="R120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -6680,45 +7365,51 @@
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G121" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H121">
         <v>3024</v>
       </c>
       <c r="J121" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K121" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L121" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M121" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N121" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O121" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P121" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>194</v>
+      </c>
+      <c r="R121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -6727,45 +7418,51 @@
         <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H122">
         <v>3025</v>
       </c>
       <c r="J122" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K122" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L122" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M122" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N122" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O122" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P122" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>194</v>
+      </c>
+      <c r="R122" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -6774,45 +7471,51 @@
         <v>24</v>
       </c>
       <c r="F123" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H123">
         <v>3026</v>
       </c>
       <c r="J123" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K123" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L123" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M123" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N123" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O123" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P123" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>194</v>
+      </c>
+      <c r="R123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124">
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -6821,45 +7524,51 @@
         <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G124" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H124">
         <v>3027</v>
       </c>
       <c r="J124" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K124" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L124" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M124" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N124" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O124" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P124" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>193</v>
+      </c>
+      <c r="R124" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125">
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -6868,45 +7577,51 @@
         <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G125" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H125">
         <v>3028</v>
       </c>
       <c r="J125" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K125" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L125" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M125" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N125" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O125" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P125" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>193</v>
+      </c>
+      <c r="R125" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -6915,45 +7630,51 @@
         <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G126" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H126">
         <v>3029</v>
       </c>
       <c r="J126" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K126" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L126" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M126" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N126" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O126" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P126" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>193</v>
+      </c>
+      <c r="R126" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127">
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C127" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -6962,45 +7683,51 @@
         <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G127" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H127">
         <v>3030</v>
       </c>
       <c r="J127" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K127" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L127" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M127" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N127" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O127" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>194</v>
+      </c>
+      <c r="R127" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128">
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -7009,45 +7736,51 @@
         <v>28</v>
       </c>
       <c r="F128" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G128" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H128">
         <v>3031</v>
       </c>
       <c r="J128" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K128" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L128" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M128" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N128" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O128" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P128" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>193</v>
+      </c>
+      <c r="R128" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -7056,45 +7789,51 @@
         <v>28</v>
       </c>
       <c r="F129" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G129" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H129">
         <v>3032</v>
       </c>
       <c r="J129" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K129" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L129" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M129" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N129" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O129" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P129" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>193</v>
+      </c>
+      <c r="R129" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130">
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C130" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -7103,45 +7842,51 @@
         <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G130" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H130">
         <v>3033</v>
       </c>
       <c r="J130" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K130" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L130" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M130" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N130" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O130" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P130" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>193</v>
+      </c>
+      <c r="R130" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131">
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C131" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -7150,45 +7895,51 @@
         <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G131" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H131">
         <v>3034</v>
       </c>
       <c r="J131" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K131" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L131" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M131" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N131" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O131" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P131" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>193</v>
+      </c>
+      <c r="R131" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132">
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -7197,45 +7948,51 @@
         <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H132">
         <v>3035</v>
       </c>
       <c r="J132" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K132" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L132" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M132" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N132" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O132" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P132" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>193</v>
+      </c>
+      <c r="R132" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133">
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C133" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -7244,45 +8001,51 @@
         <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G133" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H133">
         <v>3036</v>
       </c>
       <c r="J133" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K133" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L133" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M133" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N133" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O133" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P133" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>193</v>
+      </c>
+      <c r="R133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134">
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -7291,45 +8054,54 @@
         <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G134" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H134">
         <v>3037</v>
       </c>
+      <c r="I134" t="s">
+        <v>173</v>
+      </c>
       <c r="J134" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K134" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L134" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M134" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N134" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O134" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P134" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>193</v>
+      </c>
+      <c r="R134" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135">
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -7338,45 +8110,54 @@
         <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H135">
         <v>3038</v>
       </c>
+      <c r="I135" t="s">
+        <v>173</v>
+      </c>
       <c r="J135" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K135" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L135" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M135" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N135" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O135" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P135" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>193</v>
+      </c>
+      <c r="R135" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136">
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -7385,45 +8166,54 @@
         <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G136" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H136">
         <v>3039</v>
       </c>
+      <c r="I136" t="s">
+        <v>173</v>
+      </c>
       <c r="J136" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K136" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L136" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M136" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N136" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O136" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P136" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>193</v>
+      </c>
+      <c r="R136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137">
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C137" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -7432,45 +8222,51 @@
         <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G137" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H137">
         <v>3040</v>
       </c>
       <c r="J137" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K137" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L137" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M137" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N137" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O137" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P137" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>193</v>
+      </c>
+      <c r="R137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138">
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C138" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -7479,45 +8275,51 @@
         <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G138" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H138">
         <v>3041</v>
       </c>
       <c r="J138" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L138" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M138" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O138" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P138" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>193</v>
+      </c>
+      <c r="R138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139">
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -7526,45 +8328,51 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G139" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H139">
         <v>3042</v>
       </c>
       <c r="J139" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K139" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L139" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M139" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N139" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O139" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P139" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>193</v>
+      </c>
+      <c r="R139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140">
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -7573,45 +8381,51 @@
         <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G140" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H140">
         <v>3043</v>
       </c>
       <c r="J140" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K140" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L140" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M140" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N140" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O140" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P140" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>193</v>
+      </c>
+      <c r="R140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141">
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C141" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -7620,45 +8434,51 @@
         <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G141" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H141">
         <v>3044</v>
       </c>
       <c r="J141" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K141" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L141" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M141" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N141" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O141" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>193</v>
+      </c>
+      <c r="R141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142">
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -7667,45 +8487,51 @@
         <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G142" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H142">
         <v>3045</v>
       </c>
       <c r="J142" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K142" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L142" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M142" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N142" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O142" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>193</v>
+      </c>
+      <c r="R142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143">
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C143" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -7714,45 +8540,51 @@
         <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G143" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H143">
         <v>3046</v>
       </c>
       <c r="J143" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K143" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L143" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M143" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N143" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O143" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P143" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>193</v>
+      </c>
+      <c r="R143" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144">
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -7761,45 +8593,51 @@
         <v>5</v>
       </c>
       <c r="F144" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G144" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H144">
         <v>3047</v>
       </c>
       <c r="J144" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K144" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L144" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M144" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N144" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O144" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>194</v>
+      </c>
+      <c r="R144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145">
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -7808,40 +8646,43 @@
         <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G145" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H145">
         <v>3048</v>
       </c>
       <c r="J145" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K145" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L145" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M145" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N145" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O145" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>193</v>
+      </c>
+      <c r="R145" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:P146">
-    <sortCondition ref="H2:H146"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ftr_questionnaire/drafts_e1_to_e4/questions.xlsx
+++ b/ftr_questionnaire/drafts_e1_to_e4/questions.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Dropbox/ftr_research/ftr_questionnaire_master/ftr_questionnaire/drafts_e1_to_e4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4ACB76-9D4F-A047-8563-C574E262DF89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27160" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -609,8 +615,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +679,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -719,7 +733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,9 +765,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,6 +817,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -960,14 +1010,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1076,7 +1128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1129,7 +1181,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1182,7 +1234,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1235,7 +1287,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1288,7 +1340,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1341,7 +1393,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1394,7 +1446,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1447,7 +1499,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1500,7 +1552,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1553,7 +1605,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1606,7 +1658,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1659,7 +1711,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1712,7 +1764,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1765,7 +1817,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1818,7 +1870,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1871,7 +1923,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1924,7 +1976,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1977,7 +2029,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2030,7 +2082,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2083,7 +2135,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2136,7 +2188,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2189,7 +2241,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2242,7 +2294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2295,7 +2347,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2348,7 +2400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2401,7 +2453,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2454,7 +2506,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2507,7 +2559,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2560,7 +2612,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2613,7 +2665,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2666,7 +2718,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2719,7 +2771,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2772,7 +2824,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2825,7 +2877,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2878,7 +2930,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2931,7 +2983,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2987,7 +3039,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3043,7 +3095,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3099,7 +3151,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3152,7 +3204,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3205,7 +3257,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3258,7 +3310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3311,7 +3363,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3364,7 +3416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3417,7 +3469,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3470,7 +3522,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3523,7 +3575,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3576,7 +3628,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3629,7 +3681,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3682,7 +3734,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3735,7 +3787,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3788,7 +3840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3841,7 +3893,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3894,7 +3946,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3947,7 +3999,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -4000,7 +4052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -4053,7 +4105,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -4106,7 +4158,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4159,7 +4211,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -4212,7 +4264,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -4265,7 +4317,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -4318,7 +4370,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -4371,7 +4423,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -4424,7 +4476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -4477,7 +4529,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -4530,7 +4582,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -4583,7 +4635,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -4636,7 +4688,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -4689,7 +4741,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -4742,7 +4794,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -4795,7 +4847,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -4848,7 +4900,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -4901,7 +4953,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
@@ -4954,7 +5006,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -5007,7 +5059,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -5060,7 +5112,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
@@ -5113,7 +5165,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
@@ -5166,7 +5218,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -5219,7 +5271,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -5272,7 +5324,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -5325,7 +5377,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
@@ -5378,7 +5430,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -5431,7 +5483,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -5484,7 +5536,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2</v>
       </c>
@@ -5540,7 +5592,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -5596,7 +5648,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -5652,7 +5704,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2</v>
       </c>
@@ -5705,7 +5757,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2</v>
       </c>
@@ -5758,7 +5810,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -5811,7 +5863,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2</v>
       </c>
@@ -5864,7 +5916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -5917,7 +5969,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
@@ -5970,7 +6022,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2</v>
       </c>
@@ -6023,7 +6075,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
@@ -6076,7 +6128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
@@ -6129,7 +6181,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
@@ -6182,7 +6234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3</v>
       </c>
@@ -6235,7 +6287,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
@@ -6288,7 +6340,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3</v>
       </c>
@@ -6341,7 +6393,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
@@ -6394,7 +6446,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3</v>
       </c>
@@ -6447,7 +6499,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
@@ -6500,7 +6552,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3</v>
       </c>
@@ -6553,7 +6605,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -6606,7 +6658,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
@@ -6659,7 +6711,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
@@ -6712,7 +6764,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3</v>
       </c>
@@ -6765,7 +6817,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3</v>
       </c>
@@ -6818,7 +6870,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
@@ -6871,7 +6923,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
@@ -6924,7 +6976,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3</v>
       </c>
@@ -6977,7 +7029,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3</v>
       </c>
@@ -7030,7 +7082,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3</v>
       </c>
@@ -7083,7 +7135,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3</v>
       </c>
@@ -7136,7 +7188,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
@@ -7189,7 +7241,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
@@ -7242,7 +7294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3</v>
       </c>
@@ -7295,7 +7347,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3</v>
       </c>
@@ -7348,7 +7400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3</v>
       </c>
@@ -7401,7 +7453,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3</v>
       </c>
@@ -7454,7 +7506,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3</v>
       </c>
@@ -7507,7 +7559,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -7560,7 +7612,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3</v>
       </c>
@@ -7613,7 +7665,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3</v>
       </c>
@@ -7666,7 +7718,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3</v>
       </c>
@@ -7719,7 +7771,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3</v>
       </c>
@@ -7772,7 +7824,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3</v>
       </c>
@@ -7825,7 +7877,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
@@ -7878,7 +7930,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3</v>
       </c>
@@ -7931,7 +7983,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3</v>
       </c>
@@ -7984,7 +8036,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3</v>
       </c>
@@ -8037,7 +8089,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3</v>
       </c>
@@ -8093,7 +8145,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3</v>
       </c>
@@ -8149,7 +8201,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3</v>
       </c>
@@ -8205,7 +8257,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3</v>
       </c>
@@ -8258,7 +8310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3</v>
       </c>
@@ -8311,7 +8363,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3</v>
       </c>
@@ -8364,7 +8416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3</v>
       </c>
@@ -8417,7 +8469,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3</v>
       </c>
@@ -8470,7 +8522,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3</v>
       </c>
@@ -8523,7 +8575,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3</v>
       </c>
@@ -8576,7 +8628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3</v>
       </c>
@@ -8629,7 +8681,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3</v>
       </c>
